--- a/datas/Ürün Grupları Arası Risk Analizi (Inter-Commodity Spread Credit).xlsx
+++ b/datas/Ürün Grupları Arası Risk Analizi (Inter-Commodity Spread Credit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,81 +434,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
+          <t>USDTRY-USDTRYK</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5)Ürün Grupları Arası Risk Analizi 
-(Inter-Commodity Spread Credit)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>ELCBASQ-ELCBASM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -524,11 +479,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vadeli İşlem Sözleşmeleri ve Opsiyon Sözleşmeleri 
-(Futures and Options)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>ELCBASY-ELCBASQ</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -544,15 +500,11 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kontratlar 
-(Contracts)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ürün Grupları Arası Kredi Oranı (%)
-(Inter-Commodity Spread Credit)</t>
-        </is>
+          <t>ELCBASY-ELCBASM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -569,11 +521,12 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>* Öncelik aşağıdaki ikili sırasına göredir
-(Priority is applied as follows)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>TRT131130T14-TRT020926T17</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -589,11 +542,11 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDTRY-USDTRYK</t>
+          <t>X10XB-XU030</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -610,11 +563,11 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELCBASQ-ELCBASM</t>
+          <t>GARAN-AKBNK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -631,11 +584,11 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ELCBASY-ELCBASQ</t>
+          <t>XLBNK-AKBNK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -652,11 +605,11 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ELCBASY-ELCBASM</t>
+          <t>XLBNK-GARAN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -673,11 +626,11 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRT131130T14-TRT020926T17</t>
+          <t>XLBNK-ISCTR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -694,7 +647,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>X10XB-XU030</t>
+          <t>XLBNK-YKBNK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -715,11 +668,11 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GARAN-AKBNK</t>
+          <t>XU030-AKBNK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -736,11 +689,11 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XLBNK-AKBNK</t>
+          <t>XU030-ISCTR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -757,11 +710,11 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XLBNK-GARAN</t>
+          <t>XU030-THYAO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -778,11 +731,11 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XLBNK-ISCTR</t>
+          <t>XU030-SAHOL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -799,11 +752,11 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XLBNK-YKBNK</t>
+          <t>XU030-YKBNK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -820,7 +773,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XU030-AKBNK</t>
+          <t>XU030-KCHOL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -841,7 +794,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>XU030-ISCTR</t>
+          <t>XLBNK-XU030</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -862,7 +815,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>XU030-THYAO</t>
+          <t>AKBNK-ISCTR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -883,7 +836,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>XU030-SAHOL</t>
+          <t>AKBNK-VAKBN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -904,7 +857,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XU030-YKBNK</t>
+          <t>AKBNK-YKBNK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -925,7 +878,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XU030-KCHOL</t>
+          <t>X10XB-EREGL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -946,7 +899,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XLBNK-XU030</t>
+          <t>GARAN-ISCTR</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -967,7 +920,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AKBNK-ISCTR</t>
+          <t>GARAN-YKBNK</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -988,7 +941,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AKBNK-VAKBN</t>
+          <t>VAKBN-ISCTR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1009,7 +962,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AKBNK-YKBNK</t>
+          <t>YKBNK-ISCTR</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1030,7 +983,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>X10XB-EREGL</t>
+          <t>PGSUS-THYAO</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1051,7 +1004,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GARAN-ISCTR</t>
+          <t>X10XB-THYAO</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1072,7 +1025,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GARAN-YKBNK</t>
+          <t>X10XB-TUPRS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1093,7 +1046,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VAKBN-ISCTR</t>
+          <t>VAKBN-HALKB</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1114,7 +1067,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YKBNK-ISCTR</t>
+          <t>XLBNK-VAKBN</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1135,7 +1088,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PGSUS-THYAO</t>
+          <t>EURTRY-USDTRY</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1156,7 +1109,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X10XB-THYAO</t>
+          <t>XAUUSD-XAUTRY</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1177,7 +1130,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X10XB-TUPRS</t>
+          <t>XAUUSD-XAGUSD</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1198,7 +1151,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VAKBN-HALKB</t>
+          <t>XLBNK-HALKB</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1219,7 +1172,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>XLBNK-VAKBN</t>
+          <t>X10XB-SISE</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1240,7 +1193,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EURTRY-USDTRY</t>
+          <t>KOZAA-KOZAL</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1261,11 +1214,11 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>XAUUSD-XAUTRY</t>
+          <t>XU030-EREGL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1282,11 +1235,11 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>XAUUSD-XAGUSD</t>
+          <t>XU030-GARAN</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1303,11 +1256,11 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>XLBNK-HALKB</t>
+          <t>XU030-TCELL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1324,11 +1277,11 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>X10XB-SISE</t>
+          <t>XU030-TUPRS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -1345,11 +1298,11 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KOZAA-KOZAL</t>
+          <t>XU030-VAKBN</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1366,7 +1319,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XU030-EREGL</t>
+          <t>XU030-ARCLK</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1387,7 +1340,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>XU030-GARAN</t>
+          <t>XU030-EKGYO</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1408,7 +1361,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>XU030-TCELL</t>
+          <t>XU030-HALKB</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1429,7 +1382,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>XU030-TUPRS</t>
+          <t>XU030-KRDMD</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1450,7 +1403,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XU030-VAKBN</t>
+          <t>XU030-PETKM</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1471,7 +1424,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XU030-ARCLK</t>
+          <t>XU030-SISE</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1492,7 +1445,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>XU030-EKGYO</t>
+          <t>XU030-TTKOM</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1513,7 +1466,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>XU030-HALKB</t>
+          <t>XU030-ASELS</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1534,7 +1487,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>XU030-KRDMD</t>
+          <t>XU030-DOHOL</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1555,7 +1508,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>XU030-PETKM</t>
+          <t>XU030-TAVHL</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1576,7 +1529,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>XU030-SISE</t>
+          <t>XU030-TKFEN</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1597,7 +1550,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>XU030-TTKOM</t>
+          <t>XU030-TSKB</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1618,7 +1571,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>XU030-ASELS</t>
+          <t>SAHOL-AKBNK</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1639,7 +1592,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XU030-DOHOL</t>
+          <t>AKBNK-HALKB</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1660,7 +1613,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XU030-TAVHL</t>
+          <t>KCHOL-AKBNK</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1681,7 +1634,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>XU030-TKFEN</t>
+          <t>AKBNK-TSKB</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1702,7 +1655,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>XU030-TSKB</t>
+          <t>EREGL-KRDMD</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1723,7 +1676,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SAHOL-AKBNK</t>
+          <t>SAHOL-GARAN</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1744,7 +1697,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AKBNK-HALKB</t>
+          <t>GARAN-VAKBN</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1765,7 +1718,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KCHOL-AKBNK</t>
+          <t>GARAN-HALKB</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1786,7 +1739,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AKBNK-TSKB</t>
+          <t>GARAN-TSKB</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1807,7 +1760,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EREGL-KRDMD</t>
+          <t>SAHOL-ISCTR</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1828,7 +1781,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SAHOL-GARAN</t>
+          <t>HALKB-ISCTR</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1849,7 +1802,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GARAN-VAKBN</t>
+          <t>ISCTR-TSKB</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1870,7 +1823,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GARAN-HALKB</t>
+          <t>X10XB-TCELL</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1891,7 +1844,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GARAN-TSKB</t>
+          <t>THYAO-TAVHL</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1912,7 +1865,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SAHOL-ISCTR</t>
+          <t>SAHOL-YKBNK</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1933,7 +1886,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HALKB-ISCTR</t>
+          <t>KCHOL-SAHOL</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1954,7 +1907,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ISCTR-TSKB</t>
+          <t>XLBNK-SAHOL</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1975,7 +1928,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X10XB-TCELL</t>
+          <t>X10XB-SAHOL</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1996,7 +1949,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>THYAO-TAVHL</t>
+          <t>YKBNK-VAKBN</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2017,7 +1970,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SAHOL-YKBNK</t>
+          <t>VAKBN-TSKB</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2038,7 +1991,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KCHOL-SAHOL</t>
+          <t>YKBNK-HALKB</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2059,7 +2012,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XLBNK-SAHOL</t>
+          <t>YKBNK-TSKB</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2080,7 +2033,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>X10XB-SAHOL</t>
+          <t>GBPUSD-EURUSD</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2101,7 +2054,7 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>YKBNK-VAKBN</t>
+          <t>X10XB-EKGYO</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2122,7 +2075,7 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VAKBN-TSKB</t>
+          <t>HALKB-TSKB</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2143,7 +2096,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>YKBNK-HALKB</t>
+          <t>XLBNK-KCHOL</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2164,7 +2117,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>YKBNK-TSKB</t>
+          <t>X10XB-KCHOL</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2185,7 +2138,7 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBPUSD-EURUSD</t>
+          <t>X10XB-KRDMD</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2206,7 +2159,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>X10XB-EKGYO</t>
+          <t>X10XB-PETKM</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2227,7 +2180,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HALKB-TSKB</t>
+          <t>PGSUS-TAVHL</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2248,7 +2201,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XLBNK-KCHOL</t>
+          <t>X10XB-TTKOM</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2269,7 +2222,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>X10XB-KCHOL</t>
+          <t>X10XB-ASELS</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2290,7 +2243,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>X10XB-KRDMD</t>
+          <t>X10XB-TAVHL</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2311,7 +2264,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>X10XB-PETKM</t>
+          <t>X10XB-TKFEN</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2332,7 +2285,7 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PGSUS-TAVHL</t>
+          <t>XLBNK-TSKB</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2353,7 +2306,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>X10XB-TTKOM</t>
+          <t>X10XB-XLBNK</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2374,12 +2327,11 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>X10XB-ASELS</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>50</v>
-      </c>
+          <t>Delta Spread Oranı 
+(Delta Per Spread Ratio)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -2395,11 +2347,11 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X10XB-TAVHL</t>
+          <t>USDTRY-USDTRYK</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
@@ -2416,11 +2368,11 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>X10XB-TKFEN</t>
+          <t>ELCBASQ-ELCBASM</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -2437,11 +2389,11 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>XLBNK-TSKB</t>
+          <t>ELCBASY-ELCBASQ</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -2458,11 +2410,11 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>X10XB-XLBNK</t>
+          <t>ELCBASY-ELCBASM</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -2479,11 +2431,12 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Delta Spread Oranı 
-(Delta Per Spread Ratio)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>TRT131130T14-TRT020926T17</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.7</v>
+      </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
@@ -2499,11 +2452,11 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USDTRY-USDTRYK</t>
+          <t>X10XB-XU030</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -2520,11 +2473,11 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ELCBASQ-ELCBASM</t>
+          <t>GARAN-AKBNK</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>1.49</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -2541,11 +2494,11 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ELCBASY-ELCBASQ</t>
+          <t>XLBNK-AKBNK</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>20.29</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -2562,11 +2515,11 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ELCBASY-ELCBASM</t>
+          <t>XLBNK-GARAN</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>13.63</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -2583,11 +2536,11 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRT131130T14-TRT020926T17</t>
+          <t>XLBNK-ISCTR</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.7</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -2604,11 +2557,11 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X10XB-XU030</t>
+          <t>XLBNK-YKBNK</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.14</v>
+        <v>37.72</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -2625,11 +2578,11 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GARAN-AKBNK</t>
+          <t>XU030-AKBNK</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.49</v>
+        <v>18.59</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -2646,11 +2599,11 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>XLBNK-AKBNK</t>
+          <t>XU030-ISCTR</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>20.29</v>
+        <v>78.34</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -2667,11 +2620,11 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>XLBNK-GARAN</t>
+          <t>XU030-THYAO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13.63</v>
+        <v>3.52</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -2688,11 +2641,11 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>XLBNK-ISCTR</t>
+          <t>XU030-SAHOL</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>85.51000000000001</v>
+        <v>11.79</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -2709,11 +2662,11 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>XLBNK-YKBNK</t>
+          <t>XU030-YKBNK</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>37.72</v>
+        <v>34.55</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -2730,11 +2683,11 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>XU030-AKBNK</t>
+          <t>XU030-KCHOL</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>18.59</v>
+        <v>4.84</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -2751,11 +2704,11 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>XU030-ISCTR</t>
+          <t>XLBNK-XU030</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>78.34</v>
+        <v>1.09</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -2772,11 +2725,11 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>XU030-THYAO</t>
+          <t>AKBNK-ISCTR</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3.52</v>
+        <v>4.21</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -2793,11 +2746,11 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>XU030-SAHOL</t>
+          <t>AKBNK-VAKBN</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11.79</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -2814,11 +2767,11 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>XU030-YKBNK</t>
+          <t>AKBNK-YKBNK</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>34.55</v>
+        <v>1.86</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -2835,11 +2788,11 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>XU030-KCHOL</t>
+          <t>X10XB-EREGL</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.84</v>
+        <v>27.47</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -2856,11 +2809,11 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>XLBNK-XU030</t>
+          <t>GARAN-ISCTR</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.09</v>
+        <v>6.28</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -2877,11 +2830,11 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AKBNK-ISCTR</t>
+          <t>GARAN-YKBNK</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.21</v>
+        <v>2.77</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -2898,11 +2851,11 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AKBNK-VAKBN</t>
+          <t>VAKBN-ISCTR</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -2919,11 +2872,11 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AKBNK-YKBNK</t>
+          <t>YKBNK-ISCTR</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -2940,11 +2893,11 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>X10XB-EREGL</t>
+          <t>PGSUS-THYAO</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>27.47</v>
+        <v>1.46</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -2961,11 +2914,11 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GARAN-ISCTR</t>
+          <t>X10XB-THYAO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6.28</v>
+        <v>4.02</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -2982,11 +2935,11 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GARAN-YKBNK</t>
+          <t>X10XB-TUPRS</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2.77</v>
+        <v>6.84</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -3003,11 +2956,11 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>VAKBN-ISCTR</t>
+          <t>VAKBN-HALKB</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -3024,11 +2977,11 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>YKBNK-ISCTR</t>
+          <t>XLBNK-VAKBN</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.27</v>
+        <v>60.92</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -3045,11 +2998,11 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PGSUS-THYAO</t>
+          <t>EURTRY-USDTRY</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -3066,11 +3019,11 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>X10XB-THYAO</t>
+          <t>XAUUSD-XAUTRY</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4.02</v>
+        <v>28.77</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -3087,11 +3040,11 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>X10XB-TUPRS</t>
+          <t>XAUUSD-XAGUSD</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.84</v>
+        <v>8.18</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -3108,11 +3061,11 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VAKBN-HALKB</t>
+          <t>XLBNK-HALKB</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.18</v>
+        <v>72.03</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -3129,11 +3082,11 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>XLBNK-VAKBN</t>
+          <t>X10XB-SISE</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>60.92</v>
+        <v>25.01</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -3150,11 +3103,11 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EURTRY-USDTRY</t>
+          <t>KOZAA-KOZAL</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.08</v>
+        <v>2.24</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -3171,11 +3124,11 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>XAUUSD-XAUTRY</t>
+          <t>XU030-EREGL</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>28.77</v>
+        <v>24.03</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -3192,11 +3145,11 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>XAUUSD-XAGUSD</t>
+          <t>XU030-GARAN</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8.18</v>
+        <v>12.48</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -3213,11 +3166,11 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>XLBNK-HALKB</t>
+          <t>XU030-TCELL</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>72.03</v>
+        <v>13</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -3234,11 +3187,11 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>X10XB-SISE</t>
+          <t>XU030-TUPRS</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>25.01</v>
+        <v>5.98</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -3255,11 +3208,11 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KOZAA-KOZAL</t>
+          <t>XU030-VAKBN</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.24</v>
+        <v>55.82</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -3276,11 +3229,11 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>XU030-EREGL</t>
+          <t>XU030-ARCLK</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>24.03</v>
+        <v>6.36</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -3297,11 +3250,11 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>XU030-GARAN</t>
+          <t>XU030-EKGYO</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>12.48</v>
+        <v>114.64</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -3318,11 +3271,11 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>XU030-TCELL</t>
+          <t>XU030-HALKB</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -3339,11 +3292,11 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>XU030-TUPRS</t>
+          <t>XU030-KRDMD</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5.98</v>
+        <v>40.69</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -3360,11 +3313,11 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>XU030-VAKBN</t>
+          <t>XU030-PETKM</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>55.82</v>
+        <v>52.3</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -3381,11 +3334,11 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>XU030-ARCLK</t>
+          <t>XU030-SISE</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6.36</v>
+        <v>21.88</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -3402,11 +3355,11 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>XU030-EKGYO</t>
+          <t>XU030-TTKOM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>114.64</v>
+        <v>26.9</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -3423,11 +3376,11 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>XU030-HALKB</t>
+          <t>XU030-ASELS</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>65.98999999999999</v>
+        <v>18.39</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -3444,11 +3397,11 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>XU030-KRDMD</t>
+          <t>XU030-DOHOL</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>40.69</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -3465,11 +3418,11 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>XU030-PETKM</t>
+          <t>XU030-TAVHL</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>52.3</v>
+        <v>5.03</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -3486,11 +3439,11 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>XU030-SISE</t>
+          <t>XU030-TKFEN</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>21.88</v>
+        <v>22.29</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -3507,11 +3460,11 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>XU030-TTKOM</t>
+          <t>XU030-TSKB</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>26.9</v>
+        <v>106.95</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -3528,11 +3481,11 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>XU030-ASELS</t>
+          <t>SAHOL-AKBNK</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>18.39</v>
+        <v>1.58</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -3549,11 +3502,11 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>XU030-DOHOL</t>
+          <t>AKBNK-HALKB</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>76.06999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -3570,11 +3523,11 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>XU030-TAVHL</t>
+          <t>KCHOL-AKBNK</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5.03</v>
+        <v>3.84</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -3591,11 +3544,11 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>XU030-TKFEN</t>
+          <t>AKBNK-TSKB</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>22.29</v>
+        <v>5.75</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -3612,11 +3565,11 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>XU030-TSKB</t>
+          <t>EREGL-KRDMD</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>106.95</v>
+        <v>1.69</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -3633,11 +3586,11 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SAHOL-AKBNK</t>
+          <t>SAHOL-GARAN</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -3654,11 +3607,11 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AKBNK-HALKB</t>
+          <t>GARAN-VAKBN</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3.55</v>
+        <v>4.47</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -3675,11 +3628,11 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>KCHOL-AKBNK</t>
+          <t>GARAN-HALKB</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.84</v>
+        <v>5.29</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -3696,11 +3649,11 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AKBNK-TSKB</t>
+          <t>GARAN-TSKB</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5.75</v>
+        <v>8.57</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -3717,11 +3670,11 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>EREGL-KRDMD</t>
+          <t>SAHOL-ISCTR</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.69</v>
+        <v>6.64</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -3738,11 +3691,11 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SAHOL-GARAN</t>
+          <t>HALKB-ISCTR</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -3759,11 +3712,11 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GARAN-VAKBN</t>
+          <t>ISCTR-TSKB</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4.47</v>
+        <v>1.37</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -3780,11 +3733,11 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GARAN-HALKB</t>
+          <t>X10XB-TCELL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5.29</v>
+        <v>14.86</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -3801,11 +3754,11 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GARAN-TSKB</t>
+          <t>THYAO-TAVHL</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8.57</v>
+        <v>1.43</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -3822,11 +3775,11 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SAHOL-ISCTR</t>
+          <t>SAHOL-YKBNK</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6.64</v>
+        <v>2.93</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -3843,11 +3796,11 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>HALKB-ISCTR</t>
+          <t>KCHOL-SAHOL</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.19</v>
+        <v>2.44</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -3864,11 +3817,11 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ISCTR-TSKB</t>
+          <t>XLBNK-SAHOL</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.37</v>
+        <v>12.87</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -3885,11 +3838,11 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>X10XB-TCELL</t>
+          <t>X10XB-SAHOL</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>14.86</v>
+        <v>13.48</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -3906,11 +3859,11 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>THYAO-TAVHL</t>
+          <t>YKBNK-VAKBN</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -3927,11 +3880,11 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SAHOL-YKBNK</t>
+          <t>VAKBN-TSKB</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.93</v>
+        <v>1.92</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -3948,11 +3901,11 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>KCHOL-SAHOL</t>
+          <t>YKBNK-HALKB</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -3969,11 +3922,11 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>XLBNK-SAHOL</t>
+          <t>YKBNK-TSKB</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12.87</v>
+        <v>3.1</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -3990,11 +3943,11 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>X10XB-SAHOL</t>
+          <t>GBPUSD-EURUSD</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>13.48</v>
+        <v>1.17</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -4011,11 +3964,11 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>YKBNK-VAKBN</t>
+          <t>X10XB-EKGYO</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.62</v>
+        <v>131.02</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -4032,11 +3985,11 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>VAKBN-TSKB</t>
+          <t>HALKB-TSKB</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -4053,11 +4006,11 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>YKBNK-HALKB</t>
+          <t>XLBNK-KCHOL</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.91</v>
+        <v>5.28</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -4074,11 +4027,11 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>YKBNK-TSKB</t>
+          <t>X10XB-KCHOL</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.1</v>
+        <v>5.53</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -4095,11 +4048,11 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GBPUSD-EURUSD</t>
+          <t>X10XB-KRDMD</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.17</v>
+        <v>46.51</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -4116,11 +4069,11 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>X10XB-EKGYO</t>
+          <t>X10XB-PETKM</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>131.02</v>
+        <v>59.78</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -4137,11 +4090,11 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>HALKB-TSKB</t>
+          <t>PGSUS-TAVHL</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.62</v>
+        <v>2.09</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -4158,11 +4111,11 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>XLBNK-KCHOL</t>
+          <t>X10XB-TTKOM</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5.28</v>
+        <v>30.75</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -4179,11 +4132,11 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>X10XB-KCHOL</t>
+          <t>X10XB-ASELS</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5.53</v>
+        <v>21.01</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -4200,11 +4153,11 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>X10XB-KRDMD</t>
+          <t>X10XB-TAVHL</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>46.51</v>
+        <v>5.75</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -4221,11 +4174,11 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>X10XB-PETKM</t>
+          <t>X10XB-TKFEN</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>59.78</v>
+        <v>25.47</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -4242,11 +4195,11 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PGSUS-TAVHL</t>
+          <t>XLBNK-TSKB</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.09</v>
+        <v>116.74</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -4263,11 +4216,11 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>X10XB-TTKOM</t>
+          <t>X10XB-XLBNK</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>30.75</v>
+        <v>1.05</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -4280,111 +4233,6 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>X10XB-ASELS</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>X10XB-TAVHL</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>X10XB-TKFEN</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>XLBNK-TSKB</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>116.74</v>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>X10XB-XLBNK</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
